--- a/Literature review/Summary.xlsx
+++ b/Literature review/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Desktop\GUC\Semester 8\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Desktop\GUC\Semester 8\Literature review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A9D5D-5472-432B-808E-4B26B1D9C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1A967-FBD8-4F9F-8352-6D1EED098B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53B0C59D-D55D-4D7B-8F1A-13A8417F94E7}"/>
   </bookViews>
@@ -35,15 +35,232 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Paper keyword</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Propositions</t>
+  </si>
+  <si>
+    <t>Future recommendations</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Highway Vehicle Behavior Intention Prediction for Autonomous vehicles</t>
+  </si>
+  <si>
+    <t>Jianwu Fang, Fan Wang, Jianru Xue, and Tat-Seng Chua</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Behavioral intention prediction, challenges, promising approaches, road agents, benchmarks</t>
+  </si>
+  <si>
+    <t>Sajjad Mozaffari, Omar Y. Al-Jarrah, Mehrdad Dianati, Paul Jennings, and Alexandros Mouzakitis</t>
+  </si>
+  <si>
+    <t>Deep Learning-based Vehicle Behaviour Prediction for Autonomous Driving Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Behavioral Intention Prediction in Driving Scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to extract inspiration for BIP research from the key factors, challenges, and promising models including causality, multimodality, and synthetic-real data collaboration. In addition, we present the most comprehensive review of the available datasets for BIP.</t>
+  </si>
+  <si>
+    <t>the definition of different prediction tasks, and provide a more targeted and comprehensive survey on BIP from the available datasets (17 ones), intention types, key factors, approaches, applications, and future in sights.
+ • The latest progress in behavioral intention prediction is extensively investigated and the new research pipelines are chronologically reviewed and discussed.
+ • We provide more discussion for the promising formulations and insights, such as causality, parallel testing, prediction uncertainty modeling, BEV representation, etc.</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>BIP-aware behavior
+ prediction has a large space to be developed.</t>
+  </si>
+  <si>
+    <t>AGENT-CENTRIC BIP, BIP-AWARE APPLICATIONS</t>
+  </si>
+  <si>
+    <t>Vehicle behaviour prediction, trajectory prediction, autonomous vehicles, intelligent vehicles, machine learning,deep learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no systematic and comparative review of the latter deep learning-based approaches. </t>
+  </si>
+  <si>
+    <t>Physics-based models, HMM, SVM, DBN, Deep Learning models, Trajectory clustering, Topic modeling, Anomaly detection</t>
+  </si>
+  <si>
+    <t>Multi-modal prediction; Environment &amp; traffic-aware models; Sensor fusion; Lightweight models; Data augmentation; Standard datasets &amp; evaluation metrics</t>
+  </si>
+  <si>
+    <t>New classification framework (input, output, prediction method); Multi-vehicle interaction modeling; Inclusion of traffic rules &amp; environment data; Practical deployment issues (sensor noise, real-time performance)</t>
+  </si>
+  <si>
+    <t>Review and classify DL-based vehicle behavior prediction approaches; Identify gaps; Propose future research directions; Compare trajectory prediction models; Discuss practical deployment challenges</t>
+  </si>
+  <si>
+    <t>Pedestrian and vehicle behaviour prediction in autonomous vehicle system</t>
+  </si>
+  <si>
+    <t>Luiz G. Galvão, M. Nazmul Huda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Department of Electronic and Electrical Engineering, Brunel University London, Kingston Lane, Uxbridge, UB8 3PH, London, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expert Systems With Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deep learning
+ Autonomous vehicle
+ Pedestrian
+ Vehicles
+ Behaviour prediction</t>
+  </si>
+  <si>
+    <t>LSTM, GRU, CNN, GCN, GAN, Social pooling layers, Attention mechanisms, Kalman Filter (KF), Extended Kalman Filter (EKF), Hidden Markov Model (HMM), Support Vector Machine (SVM)</t>
+  </si>
+  <si>
+    <t>Predicting the behavior of dynamic agents (pedestrians and vehicles).  Interactions among heterogeneous agents. Limitations in current datasets (top-view vs on-board).  Challenges in modeling interactions and establishing relationships between agents and their environment.</t>
+  </si>
+  <si>
+    <t>To predict trajectories and intentions of pedestrians and vehicles accurately. To enhance risk assessment for AVs based on behavior predictions.To develop a comprehensive understanding of behaviors in complex traffic scenarios.</t>
+  </si>
+  <si>
+    <t>Introduction of a general framework for behavior prediction highlighting dependencies on hardware and perception modules. Use of multi-task learning to improve prediction performance. Enhance current algorithms with additional sensors and data types (e.g., local/global context).</t>
+  </si>
+  <si>
+    <t>Encourage research on on-board datasets for more realistic behavior predictions. Standardize datasets for cross-dataset evaluations.  Develop algorithms that can predict intention and trajectory simultaneously. Focus on abnormal behavior prediction and reduce inference time. Conduct more research on full pipeline systems integrating detection, tracking, and behavior prediction</t>
+  </si>
+  <si>
+    <t>A survey on path prediction techniques for vulnerable road users: From traditional to deep learning approaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariyan Bighashdel and Gijs Dubbelman </t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Vulnerable Road Users (VRUs)
+Path prediction
+Pedestrian trajectory
+Traditional approaches
+Deep learning
+Intention prediction
+Interaction modeling
+Path planning
+Behavior analysis
+Autonomous driving</t>
+  </si>
+  <si>
+    <t>Predicting future paths and behaviors of Vulnerable Road Users (VRUs) for autonomous driving and ADAS systems in crowded and unstructured environments. Pedestrian behavior is highly variable and unpredictable.</t>
+  </si>
+  <si>
+    <t>Combine handcrafted and deep learning methods; Develop uncertainty-aware prediction models; Emphasize multi-modal sensor fusion; Create large public datasets; Personalize models for different cultures and settings; Develop benchmarking frameworks for fair comparison across urban environments</t>
+  </si>
+  <si>
+    <t>Comprehensive review of VRU path prediction techniques; classify into traditional and deep learning approaches; highlight evolution from manual feature extraction to automatic learning; propose framework to understand path prediction techniques and challenges</t>
+  </si>
+  <si>
+    <t>SFM, CA, DCM, Goal estimation, Social-LSTM, Social-GAN, Structured LSTM, Static-LSTM, CNN + RMDN, Bidirectional LSTM-MDN), Intention-based approaches (CNN + LSTM, Skeleton-based detection, Stacked LSTM)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +279,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +336,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,14 +719,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043358F-3CC4-4C6D-88D3-7B2F9EE9F923}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="154" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="196" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="294" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="364" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>